--- a/Documents/Editable Docs/User Story 3.xlsx
+++ b/Documents/Editable Docs/User Story 3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dreary\Documents\GitHub\kong\Documents\Editable Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Dropbox\2018 Summer\Software Dev 3308\kong\Documents\Editable Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{831F7124-A171-450B-A99D-422C830BBF9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -522,11 +523,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -536,17 +552,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -586,12 +593,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -879,7 +880,7 @@
   <dimension ref="A1:J1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H22" sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -983,18 +984,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1003,62 +1004,62 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="45" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="7" t="s">
         <v>6</v>
       </c>
@@ -1067,18 +1068,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="51">
+      <c r="D13" s="29">
         <v>1.01</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="8" t="s">
         <v>8</v>
       </c>
@@ -1087,22 +1088,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -1124,11 +1125,11 @@
       <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
@@ -1148,9 +1149,9 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
@@ -1170,9 +1171,9 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
@@ -1192,9 +1193,9 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
@@ -1214,9 +1215,9 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
@@ -1234,9 +1235,9 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
@@ -1248,23 +1249,23 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
@@ -2259,12 +2260,6 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="A13:B13"/>
@@ -2281,6 +2276,12 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
